--- a/Quiniela Script.xlsx
+++ b/Quiniela Script.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="490">
   <si>
     <t>Resultados Temporada 2020-2021</t>
   </si>
@@ -148,174 +148,174 @@
     <t>Valencia - Getafe</t>
   </si>
   <si>
+    <t>1 - 08</t>
+  </si>
+  <si>
+    <t>Roja Valencia, Roja Getafe, segunda parte muy buena del Getafe, mereció el empate</t>
+  </si>
+  <si>
+    <t>Atlético de Madrid</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Mallorca - Real Betis</t>
+  </si>
+  <si>
+    <t>1 - 1</t>
+  </si>
+  <si>
+    <t>Mallorca le plantó cara al Betis. Betis buenos jugadores, mejoró en la segunda</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Cádiz - Levante</t>
+  </si>
+  <si>
+    <t>Levante dominó. Gol del Cádiz en el 87</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>Deportivo Alavés - Real Madrid</t>
+  </si>
+  <si>
+    <t>1 - 4</t>
+  </si>
+  <si>
+    <t>Muy bien Madrid. No es la liga del Alavés</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Osasuna - Espanyol</t>
+  </si>
+  <si>
+    <t>0 - 0</t>
+  </si>
+  <si>
+    <t>Empate justo, pocas ocasiones</t>
+  </si>
+  <si>
+    <t>Real Sociedad</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Celta - Atlético de Madrid</t>
+  </si>
+  <si>
+    <t>1 - 2</t>
+  </si>
+  <si>
+    <t>Muy bien Correa, dos goles. Celta complicó al Atleti</t>
+  </si>
+  <si>
+    <t>Real Betis</t>
+  </si>
+  <si>
+    <t>Barcelona - Real Sociedad</t>
+  </si>
+  <si>
+    <t>4 - 2</t>
+  </si>
+  <si>
+    <t>Bien Braithwaite, la Real pierde casi siempre con el Barça</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>0,25</t>
+  </si>
+  <si>
+    <t>Sevilla - Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>3 - 0</t>
+  </si>
+  <si>
+    <t>Roja Luca Zidane Minuto 16, Bien Lamela</t>
+  </si>
+  <si>
+    <t>Celta</t>
+  </si>
+  <si>
+    <t>Villarreal - Granada</t>
+  </si>
+  <si>
+    <t>Hizo algo más el Villarreal</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>Elche - Athletic Club</t>
+  </si>
+  <si>
+    <t>Gol anulado por fuera de juego inexistente al Elche.</t>
+  </si>
+  <si>
+    <t>Athletic Club</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>Jornada 1 - Liga Smartbank</t>
+  </si>
+  <si>
+    <t>Cádiz</t>
+  </si>
+  <si>
+    <t>Huesca - Eibar</t>
+  </si>
+  <si>
+    <t>2 - 0</t>
+  </si>
+  <si>
+    <t>Muy sobrado el Huesca</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Real Zaragoza - Ibiza</t>
+  </si>
+  <si>
+    <t>Ibiza compitió</t>
+  </si>
+  <si>
+    <t>Levante</t>
+  </si>
+  <si>
+    <t>Real Sociedad B - Leganés</t>
+  </si>
+  <si>
     <t>1 - 0</t>
   </si>
   <si>
-    <t>Roja Valencia, Roja Getafe, segunda parte muy buena del Getafe, mereció el empate</t>
-  </si>
-  <si>
-    <t>Atlético de Madrid</t>
-  </si>
-  <si>
-    <t>2,5</t>
-  </si>
-  <si>
-    <t>0,5</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Mallorca - Real Betis</t>
-  </si>
-  <si>
-    <t>1 - 1</t>
-  </si>
-  <si>
-    <t>Mallorca le plantó cara al Betis. Betis buenos jugadores, mejoró en la segunda</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>APLZ</t>
-  </si>
-  <si>
-    <t>Cádiz - Levante</t>
-  </si>
-  <si>
-    <t>Levante dominó. Gol del Cádiz en el 87</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>1,5</t>
-  </si>
-  <si>
-    <t>Deportivo Alavés - Real Madrid</t>
-  </si>
-  <si>
-    <t>1 - 4</t>
-  </si>
-  <si>
-    <t>Muy bien Madrid. No es la liga del Alavés</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Osasuna - Espanyol</t>
-  </si>
-  <si>
-    <t>0 - 0</t>
-  </si>
-  <si>
-    <t>Empate justo, pocas ocasiones</t>
-  </si>
-  <si>
-    <t>Real Sociedad</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Celta - Atlético de Madrid</t>
-  </si>
-  <si>
-    <t>1 - 2</t>
-  </si>
-  <si>
-    <t>Muy bien Correa, dos goles. Celta complicó al Atleti</t>
-  </si>
-  <si>
-    <t>Real Betis</t>
-  </si>
-  <si>
-    <t>Barcelona - Real Sociedad</t>
-  </si>
-  <si>
-    <t>4 - 2</t>
-  </si>
-  <si>
-    <t>Bien Braithwaite, la Real pierde casi siempre con el Barça</t>
-  </si>
-  <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>0,25</t>
-  </si>
-  <si>
-    <t>Sevilla - Rayo Vallecano</t>
-  </si>
-  <si>
-    <t>3 - 0</t>
-  </si>
-  <si>
-    <t>Roja Luca Zidane Minuto 16, Bien Lamela</t>
-  </si>
-  <si>
-    <t>Celta</t>
-  </si>
-  <si>
-    <t>Villarreal - Granada</t>
-  </si>
-  <si>
-    <t>Hizo algo más el Villarreal</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>Elche - Athletic Club</t>
-  </si>
-  <si>
-    <t>Gol anulado por fuera de juego inexistente al Elche.</t>
-  </si>
-  <si>
-    <t>Athletic Club</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Osasuna</t>
-  </si>
-  <si>
-    <t>Jornada 1 - Liga Smartbank</t>
-  </si>
-  <si>
-    <t>Cádiz</t>
-  </si>
-  <si>
-    <t>Huesca - Eibar</t>
-  </si>
-  <si>
-    <t>2 - 0</t>
-  </si>
-  <si>
-    <t>Muy sobrado el Huesca</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Real Zaragoza - Ibiza</t>
-  </si>
-  <si>
-    <t>Ibiza compitió</t>
-  </si>
-  <si>
-    <t>Levante</t>
-  </si>
-  <si>
-    <t>Real Sociedad B - Leganés</t>
-  </si>
-  <si>
     <t>Muy bien Sanse, buen delantero Karrikaburu. Leganés no compareció</t>
   </si>
   <si>
@@ -361,9 +361,6 @@
     <t>Mallorca</t>
   </si>
   <si>
-    <t>-------------*</t>
-  </si>
-  <si>
     <t>Fuenlabrada - Tenerife</t>
   </si>
   <si>
@@ -412,12 +409,6 @@
     <t>Huesca</t>
   </si>
   <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>--,</t>
-  </si>
-  <si>
     <t>Real Valladolid</t>
   </si>
   <si>
@@ -721,18 +712,12 @@
     <t xml:space="preserve">Dos equipos muy flojos en este inicio. X. 3-0 en el descanso, increíble baño </t>
   </si>
   <si>
-    <t>-///-//--/</t>
-  </si>
-  <si>
     <t>Atlético de Madrid - Villarreal</t>
   </si>
   <si>
     <t>Villarreal muy flojo. Unocerismo pero el Villarreal se viene arriba. M - 1. Partido muy loco, en el 95 gol en propia del Villarreal en una cesión al portero. Bien Villarreal</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>Jornada 3 - Liga Smartbank</t>
   </si>
   <si>
@@ -899,6 +884,9 @@
   </si>
   <si>
     <t>Huesca - Real Oviedo</t>
+  </si>
+  <si>
+    <t>El Oviedo aprovechó sus ocasiones ante un Huesca que tuvo mayor control del partido pero le dió muchas facilidades en defensa, fallo grave de Salvador</t>
   </si>
   <si>
     <t>Jornada 5 - Liga Santander</t>
@@ -2370,7 +2358,7 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="J6" t="s">
         <v>49</v>
@@ -2480,19 +2468,19 @@
     </row>
     <row r="7" spans="1:44">
       <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
         <v>64</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>65</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>66</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>67</v>
-      </c>
-      <c r="G7" t="s">
-        <v>68</v>
       </c>
       <c r="H7" t="s">
         <v>47</v>
@@ -2608,25 +2596,25 @@
     </row>
     <row r="8" spans="1:44">
       <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
         <v>69</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>70</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>71</v>
       </c>
-      <c r="E8" t="s">
-        <v>72</v>
-      </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
         <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
         <v>49</v>
@@ -2736,22 +2724,22 @@
     </row>
     <row r="9" spans="1:44">
       <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
         <v>73</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>74</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>75</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>76</v>
       </c>
-      <c r="G9" t="s">
-        <v>77</v>
-      </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s">
         <v>58</v>
@@ -2864,25 +2852,25 @@
     </row>
     <row r="10" spans="1:44">
       <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
         <v>78</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>79</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>80</v>
       </c>
-      <c r="E10" t="s">
-        <v>81</v>
-      </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
         <v>49</v>
@@ -2992,25 +2980,25 @@
     </row>
     <row r="11" spans="1:44">
       <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
         <v>82</v>
       </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>83</v>
       </c>
-      <c r="E11" t="s">
-        <v>84</v>
-      </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J11" t="s">
         <v>49</v>
@@ -3120,25 +3108,25 @@
     </row>
     <row r="12" spans="1:44">
       <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
         <v>85</v>
       </c>
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>86</v>
       </c>
-      <c r="E12" t="s">
-        <v>87</v>
-      </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s">
         <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s">
         <v>49</v>
@@ -3248,16 +3236,16 @@
     </row>
     <row r="13" spans="1:44">
       <c r="E13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s">
         <v>49</v>
@@ -3367,10 +3355,10 @@
     </row>
     <row r="14" spans="1:44">
       <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" t="s">
         <v>90</v>
-      </c>
-      <c r="E14" t="s">
-        <v>91</v>
       </c>
       <c r="G14" t="s">
         <v>48</v>
@@ -3379,7 +3367,7 @@
         <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J14" t="s">
         <v>49</v>
@@ -3489,25 +3477,25 @@
     </row>
     <row r="15" spans="1:44">
       <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
         <v>92</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>93</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>94</v>
-      </c>
-      <c r="E15" t="s">
-        <v>95</v>
       </c>
       <c r="G15" t="s">
         <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s">
         <v>49</v>
@@ -3617,25 +3605,25 @@
     </row>
     <row r="16" spans="1:44">
       <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
         <v>96</v>
       </c>
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>97</v>
-      </c>
-      <c r="E16" t="s">
-        <v>98</v>
       </c>
       <c r="G16" t="s">
         <v>58</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J16" t="s">
         <v>49</v>
@@ -3745,10 +3733,10 @@
     </row>
     <row r="17" spans="1:48">
       <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" t="s">
         <v>99</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>100</v>
@@ -3760,7 +3748,7 @@
         <v>48</v>
       </c>
       <c r="H17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I17" t="s">
         <v>48</v>
@@ -3876,7 +3864,7 @@
         <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
         <v>103</v>
@@ -3885,13 +3873,13 @@
         <v>104</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J18" t="s">
         <v>49</v>
@@ -4004,7 +3992,7 @@
         <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
         <v>106</v>
@@ -4016,10 +4004,10 @@
         <v>58</v>
       </c>
       <c r="H19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="J19" t="s">
         <v>49</v>
@@ -4132,7 +4120,7 @@
         <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
         <v>109</v>
@@ -4141,13 +4129,13 @@
         <v>110</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J20" t="s">
         <v>49</v>
@@ -4269,13 +4257,13 @@
         <v>114</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s">
         <v>49</v>
@@ -4317,7 +4305,7 @@
         <v>49</v>
       </c>
       <c r="W21" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="X21" t="s">
         <v>49</v>
@@ -4385,25 +4373,25 @@
     </row>
     <row r="22" spans="1:48">
       <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
         <v>116</v>
       </c>
-      <c r="B22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>117</v>
       </c>
-      <c r="E22" t="s">
-        <v>118</v>
-      </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s">
         <v>49</v>
@@ -4513,27 +4501,27 @@
     </row>
     <row r="23" spans="1:48">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
         <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:48">
       <c r="A24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
         <v>121</v>
       </c>
-      <c r="B24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>122</v>
-      </c>
-      <c r="E24" t="s">
-        <v>123</v>
       </c>
       <c r="F24" t="s">
         <v>4</v>
@@ -4653,30 +4641,30 @@
         <v>42</v>
       </c>
       <c r="AS24" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT24" t="s">
         <v>124</v>
       </c>
-      <c r="AT24" t="s">
+      <c r="AU24" t="s">
         <v>125</v>
       </c>
-      <c r="AU24" t="s">
+      <c r="AV24" t="s">
         <v>126</v>
-      </c>
-      <c r="AV24" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:48">
       <c r="A25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" t="s">
         <v>128</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>129</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>130</v>
-      </c>
-      <c r="E25" t="s">
-        <v>131</v>
       </c>
       <c r="G25" t="s">
         <v>47</v>
@@ -4685,7 +4673,7 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J25" t="s">
         <v>49</v>
@@ -4724,10 +4712,10 @@
         <v>49</v>
       </c>
       <c r="V25" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="W25" t="s">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="X25" t="s">
         <v>49</v>
@@ -4807,10 +4795,10 @@
     </row>
     <row r="26" spans="1:48">
       <c r="E26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H26" t="s">
         <v>47</v>
@@ -4938,16 +4926,16 @@
     </row>
     <row r="27" spans="1:48">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I27" t="s">
         <v>47</v>
@@ -5072,25 +5060,25 @@
     </row>
     <row r="28" spans="1:48">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B28" t="s">
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G28" t="s">
         <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J28" t="s">
         <v>49</v>
@@ -5212,16 +5200,16 @@
     </row>
     <row r="29" spans="1:48">
       <c r="A29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" t="s">
         <v>140</v>
-      </c>
-      <c r="B29" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" t="s">
-        <v>142</v>
-      </c>
-      <c r="E29" t="s">
-        <v>143</v>
       </c>
       <c r="G29" t="s">
         <v>47</v>
@@ -5230,7 +5218,7 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J29" t="s">
         <v>49</v>
@@ -5352,25 +5340,25 @@
     </row>
     <row r="30" spans="1:48">
       <c r="A30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s">
         <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J30" t="s">
         <v>49</v>
@@ -5492,22 +5480,22 @@
     </row>
     <row r="31" spans="1:48">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E31" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G31" t="s">
         <v>58</v>
       </c>
       <c r="H31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s">
         <v>47</v>
@@ -5632,25 +5620,25 @@
     </row>
     <row r="32" spans="1:48">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B32" t="s">
         <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E32" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G32" t="s">
         <v>58</v>
       </c>
       <c r="H32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s">
         <v>49</v>
@@ -5772,25 +5760,25 @@
     </row>
     <row r="33" spans="1:48">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E33" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G33" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s">
         <v>49</v>
@@ -5912,16 +5900,16 @@
     </row>
     <row r="34" spans="1:48">
       <c r="A34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E34" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G34" t="s">
         <v>58</v>
@@ -5930,7 +5918,7 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J34" t="s">
         <v>49</v>
@@ -6052,28 +6040,28 @@
     </row>
     <row r="35" spans="1:48">
       <c r="A35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" t="s">
         <v>159</v>
       </c>
-      <c r="B35" t="s">
+      <c r="F35" t="s">
         <v>160</v>
       </c>
-      <c r="C35" t="s">
-        <v>161</v>
-      </c>
-      <c r="E35" t="s">
-        <v>162</v>
-      </c>
-      <c r="F35" t="s">
-        <v>163</v>
-      </c>
       <c r="G35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J35" t="s">
         <v>49</v>
@@ -6195,22 +6183,22 @@
     </row>
     <row r="36" spans="1:48">
       <c r="A36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C36" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E36" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I36" t="s">
         <v>47</v>
@@ -6335,25 +6323,25 @@
     </row>
     <row r="37" spans="1:48">
       <c r="A37" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E37" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G37" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J37" t="s">
         <v>49</v>
@@ -6475,7 +6463,7 @@
     </row>
     <row r="38" spans="1:48">
       <c r="E38" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G38" t="s">
         <v>47</v>
@@ -6484,7 +6472,7 @@
         <v>58</v>
       </c>
       <c r="I38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J38" t="s">
         <v>49</v>
@@ -6606,19 +6594,19 @@
     </row>
     <row r="39" spans="1:48">
       <c r="A39" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E39" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J39" t="s">
         <v>49</v>
@@ -6740,25 +6728,25 @@
     </row>
     <row r="40" spans="1:48">
       <c r="A40" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E40" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s">
         <v>49</v>
@@ -6880,25 +6868,25 @@
     </row>
     <row r="41" spans="1:48">
       <c r="A41" t="s">
+        <v>173</v>
+      </c>
+      <c r="B41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" t="s">
+        <v>175</v>
+      </c>
+      <c r="E41" t="s">
         <v>176</v>
-      </c>
-      <c r="B41" t="s">
-        <v>177</v>
-      </c>
-      <c r="C41" t="s">
-        <v>178</v>
-      </c>
-      <c r="E41" t="s">
-        <v>179</v>
       </c>
       <c r="G41" t="s">
         <v>48</v>
       </c>
       <c r="H41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J41" t="s">
         <v>49</v>
@@ -7020,25 +7008,25 @@
     </row>
     <row r="42" spans="1:48">
       <c r="A42" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E42" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G42" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J42" t="s">
         <v>49</v>
@@ -7160,25 +7148,25 @@
     </row>
     <row r="43" spans="1:48">
       <c r="A43" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E43" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s">
         <v>49</v>
@@ -7300,22 +7288,22 @@
     </row>
     <row r="44" spans="1:48">
       <c r="A44" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" t="s">
+        <v>185</v>
+      </c>
+      <c r="E44" t="s">
         <v>186</v>
-      </c>
-      <c r="B44" t="s">
-        <v>187</v>
-      </c>
-      <c r="C44" t="s">
-        <v>188</v>
-      </c>
-      <c r="E44" t="s">
-        <v>189</v>
       </c>
       <c r="G44" t="s">
         <v>48</v>
       </c>
       <c r="H44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I44" t="s">
         <v>48</v>
@@ -7440,25 +7428,25 @@
     </row>
     <row r="45" spans="1:48">
       <c r="A45" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B45" t="s">
         <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E45" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s">
         <v>49</v>
@@ -7580,25 +7568,25 @@
     </row>
     <row r="46" spans="1:48">
       <c r="A46" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B46" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C46" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E46" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J46" t="s">
         <v>49</v>
@@ -7720,270 +7708,264 @@
     </row>
     <row r="47" spans="1:48">
       <c r="A47" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F47" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:48">
       <c r="A48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F48" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:38">
       <c r="A49" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F49" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:38">
       <c r="A50" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F50" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:38">
       <c r="F51" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:38">
       <c r="A52" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F52" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:38">
       <c r="A53" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C53" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F53" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:38">
       <c r="A54" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F54" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:38">
       <c r="A55" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C55" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AL55" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:38">
       <c r="A56" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C56" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:38">
       <c r="A57" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B57" t="s">
         <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AL57" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:38">
       <c r="A58" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C58" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:38">
       <c r="A59" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B59" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C59" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:38">
       <c r="A60" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B60" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C60" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:38">
       <c r="A61" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B61" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C61" t="s">
-        <v>234</v>
-      </c>
-      <c r="M61" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:38">
       <c r="A62" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B62" t="s">
         <v>112</v>
       </c>
       <c r="C62" t="s">
-        <v>237</v>
-      </c>
-      <c r="M62" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:38">
       <c r="A64" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B65" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C65" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C66" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B67" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C67" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B70" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C70" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="K70" t="s">
         <v>49</v>
@@ -7991,1227 +7973,1233 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B71" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C71" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B72" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C72" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B73" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C73" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C74" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B75" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C75" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B90" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C90" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B91" t="s">
         <v>51</v>
       </c>
       <c r="C91" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B92" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C92" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B95" t="s">
         <v>51</v>
       </c>
       <c r="C95" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B96" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C96" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B97" t="s">
         <v>51</v>
       </c>
       <c r="C97" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B98" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C98" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B99" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C99" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>294</v>
+        <v>289</v>
+      </c>
+      <c r="B100" t="s">
+        <v>69</v>
+      </c>
+      <c r="C100" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="889" spans="1:1">
       <c r="A889" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="927" spans="1:1">
       <c r="A927" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="939" spans="1:1">
       <c r="A939" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="952" spans="1:1">
       <c r="A952" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="965" spans="1:1">
       <c r="A965" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="978" spans="1:1">
       <c r="A978" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="991" spans="1:1">
       <c r="A991" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="1002" spans="1:1">
       <c r="A1002" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>

--- a/Quiniela Script.xlsx
+++ b/Quiniela Script.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="488">
   <si>
     <t>Resultados Temporada 2020-2021</t>
   </si>
@@ -148,7 +148,7 @@
     <t>Valencia - Getafe</t>
   </si>
   <si>
-    <t>1 - 08</t>
+    <t>1 - 0</t>
   </si>
   <si>
     <t>Roja Valencia, Roja Getafe, segunda parte muy buena del Getafe, mereció el empate</t>
@@ -193,6 +193,9 @@
     <t>1,5</t>
   </si>
   <si>
+    <t>APLZ</t>
+  </si>
+  <si>
     <t>Deportivo Alavés - Real Madrid</t>
   </si>
   <si>
@@ -313,9 +316,6 @@
     <t>Real Sociedad B - Leganés</t>
   </si>
   <si>
-    <t>1 - 0</t>
-  </si>
-  <si>
     <t>Muy bien Sanse, buen delantero Karrikaburu. Leganés no compareció</t>
   </si>
   <si>
@@ -664,9 +664,6 @@
     <t>Athletic bien contra Barcelona. Celta muy mediocre en ambos. X.  Celta estaba dominando pero cagadón y gol de Williams. Muy superior Athletic. Mal Celta</t>
   </si>
   <si>
-    <t>:</t>
-  </si>
-  <si>
     <t>Real Sociedad - Levante</t>
   </si>
   <si>
@@ -677,9 +674,6 @@
   </si>
   <si>
     <t>Sevilla muy bien. 2. Elche salió muy bien y marcó en el 10. Golazo del Sevilla. Empate justo, Sevilla es un grande pero no infalible</t>
-  </si>
-  <si>
-    <t>*,</t>
   </si>
   <si>
     <t>Real Betis - Real Madrid</t>
@@ -2233,7 +2227,7 @@
         <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
         <v>49</v>
@@ -2340,16 +2334,16 @@
     </row>
     <row r="6" spans="1:44">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
         <v>47</v>
@@ -2361,7 +2355,7 @@
         <v>54</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="K6" t="s">
         <v>49</v>
@@ -2468,19 +2462,19 @@
     </row>
     <row r="7" spans="1:44">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
         <v>47</v>
@@ -2596,16 +2590,16 @@
     </row>
     <row r="8" spans="1:44">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
         <v>54</v>
@@ -2614,7 +2608,7 @@
         <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J8" t="s">
         <v>49</v>
@@ -2724,28 +2718,28 @@
     </row>
     <row r="9" spans="1:44">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s">
         <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="K9" t="s">
         <v>49</v>
@@ -2852,25 +2846,25 @@
     </row>
     <row r="10" spans="1:44">
       <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" t="s">
         <v>77</v>
       </c>
-      <c r="B10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" t="s">
-        <v>76</v>
-      </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J10" t="s">
         <v>49</v>
@@ -2980,25 +2974,25 @@
     </row>
     <row r="11" spans="1:44">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s">
         <v>54</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J11" t="s">
         <v>49</v>
@@ -3108,25 +3102,25 @@
     </row>
     <row r="12" spans="1:44">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s">
         <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J12" t="s">
         <v>49</v>
@@ -3236,16 +3230,16 @@
     </row>
     <row r="13" spans="1:44">
       <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s">
         <v>88</v>
-      </c>
-      <c r="G13" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" t="s">
-        <v>87</v>
       </c>
       <c r="J13" t="s">
         <v>49</v>
@@ -3355,10 +3349,10 @@
     </row>
     <row r="14" spans="1:44">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s">
         <v>48</v>
@@ -3367,7 +3361,7 @@
         <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J14" t="s">
         <v>49</v>
@@ -3477,16 +3471,16 @@
     </row>
     <row r="15" spans="1:44">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G15" t="s">
         <v>47</v>
@@ -3495,7 +3489,7 @@
         <v>54</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s">
         <v>49</v>
@@ -3605,16 +3599,16 @@
     </row>
     <row r="16" spans="1:44">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" t="s">
         <v>58</v>
@@ -3623,7 +3617,7 @@
         <v>54</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J16" t="s">
         <v>49</v>
@@ -3733,10 +3727,10 @@
     </row>
     <row r="17" spans="1:48">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>100</v>
@@ -3748,7 +3742,7 @@
         <v>48</v>
       </c>
       <c r="H17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I17" t="s">
         <v>48</v>
@@ -3864,7 +3858,7 @@
         <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
         <v>103</v>
@@ -3873,16 +3867,16 @@
         <v>104</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J18" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="K18" t="s">
         <v>49</v>
@@ -3992,7 +3986,7 @@
         <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
         <v>106</v>
@@ -4004,7 +3998,7 @@
         <v>58</v>
       </c>
       <c r="H19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I19" t="s">
         <v>54</v>
@@ -4120,7 +4114,7 @@
         <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
         <v>109</v>
@@ -4129,13 +4123,13 @@
         <v>110</v>
       </c>
       <c r="G20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J20" t="s">
         <v>49</v>
@@ -4260,10 +4254,10 @@
         <v>54</v>
       </c>
       <c r="H21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s">
         <v>49</v>
@@ -4376,7 +4370,7 @@
         <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
         <v>116</v>
@@ -4385,13 +4379,13 @@
         <v>117</v>
       </c>
       <c r="G22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s">
         <v>49</v>
@@ -4515,7 +4509,7 @@
         <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
         <v>121</v>
@@ -4673,7 +4667,7 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J25" t="s">
         <v>49</v>
@@ -4932,10 +4926,10 @@
         <v>133</v>
       </c>
       <c r="G27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I27" t="s">
         <v>47</v>
@@ -5075,10 +5069,10 @@
         <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J28" t="s">
         <v>49</v>
@@ -5218,7 +5212,7 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J29" t="s">
         <v>49</v>
@@ -5352,13 +5346,13 @@
         <v>143</v>
       </c>
       <c r="G30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J30" t="s">
         <v>49</v>
@@ -5483,7 +5477,7 @@
         <v>144</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
         <v>145</v>
@@ -5495,7 +5489,7 @@
         <v>58</v>
       </c>
       <c r="H31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s">
         <v>47</v>
@@ -5635,10 +5629,10 @@
         <v>58</v>
       </c>
       <c r="H32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s">
         <v>49</v>
@@ -5763,7 +5757,7 @@
         <v>150</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
         <v>151</v>
@@ -5775,10 +5769,10 @@
         <v>54</v>
       </c>
       <c r="H33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J33" t="s">
         <v>49</v>
@@ -5903,7 +5897,7 @@
         <v>153</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
         <v>154</v>
@@ -5918,7 +5912,7 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J34" t="s">
         <v>49</v>
@@ -6055,13 +6049,13 @@
         <v>160</v>
       </c>
       <c r="G35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s">
         <v>49</v>
@@ -6195,7 +6189,7 @@
         <v>163</v>
       </c>
       <c r="G36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s">
         <v>54</v>
@@ -6326,7 +6320,7 @@
         <v>164</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
         <v>165</v>
@@ -6338,10 +6332,10 @@
         <v>54</v>
       </c>
       <c r="H37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s">
         <v>49</v>
@@ -6472,7 +6466,7 @@
         <v>58</v>
       </c>
       <c r="I38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s">
         <v>49</v>
@@ -6600,13 +6594,13 @@
         <v>169</v>
       </c>
       <c r="G39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J39" t="s">
         <v>49</v>
@@ -6731,7 +6725,7 @@
         <v>170</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
         <v>171</v>
@@ -6740,13 +6734,13 @@
         <v>172</v>
       </c>
       <c r="G40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J40" t="s">
         <v>49</v>
@@ -6883,10 +6877,10 @@
         <v>48</v>
       </c>
       <c r="H41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J41" t="s">
         <v>49</v>
@@ -7011,7 +7005,7 @@
         <v>177</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
         <v>178</v>
@@ -7023,10 +7017,10 @@
         <v>54</v>
       </c>
       <c r="H42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J42" t="s">
         <v>49</v>
@@ -7151,7 +7145,7 @@
         <v>180</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
         <v>181</v>
@@ -7160,13 +7154,13 @@
         <v>182</v>
       </c>
       <c r="G43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s">
         <v>54</v>
       </c>
       <c r="I43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s">
         <v>49</v>
@@ -7303,7 +7297,7 @@
         <v>48</v>
       </c>
       <c r="H44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s">
         <v>48</v>
@@ -7440,13 +7434,13 @@
         <v>189</v>
       </c>
       <c r="G45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s">
         <v>49</v>
@@ -7580,13 +7574,13 @@
         <v>192</v>
       </c>
       <c r="G46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s">
         <v>49</v>
@@ -7711,7 +7705,7 @@
         <v>193</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
         <v>194</v>
@@ -7725,7 +7719,7 @@
         <v>196</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
         <v>197</v>
@@ -7734,12 +7728,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>199</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
         <v>200</v>
@@ -7748,12 +7742,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C50" t="s">
         <v>203</v>
@@ -7762,12 +7756,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:6">
       <c r="F51" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>206</v>
       </c>
@@ -7775,12 +7769,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>208</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="C53" t="s">
         <v>209</v>
@@ -7789,12 +7783,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>211</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C54" t="s">
         <v>212</v>
@@ -7803,7 +7797,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>214</v>
       </c>
@@ -7813,159 +7807,153 @@
       <c r="C55" t="s">
         <v>215</v>
       </c>
-      <c r="AL55" t="s">
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="56" spans="1:38">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" t="s">
         <v>217</v>
       </c>
-      <c r="B56" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" t="s">
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="57" spans="1:38">
-      <c r="A57" t="s">
-        <v>219</v>
       </c>
       <c r="B57" t="s">
         <v>51</v>
       </c>
       <c r="C57" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
         <v>220</v>
-      </c>
-      <c r="AL57" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="58" spans="1:38">
-      <c r="A58" t="s">
-        <v>222</v>
       </c>
       <c r="B58" t="s">
         <v>138</v>
       </c>
       <c r="C58" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="59" spans="1:38">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B59" t="s">
         <v>174</v>
       </c>
       <c r="C59" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>224</v>
+      </c>
+      <c r="B60" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="60" spans="1:38">
-      <c r="A60" t="s">
+      <c r="C60" t="s">
         <v>226</v>
       </c>
-      <c r="B60" t="s">
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
         <v>227</v>
       </c>
-      <c r="C60" t="s">
+      <c r="B61" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="61" spans="1:38">
-      <c r="A61" t="s">
+      <c r="C61" t="s">
         <v>229</v>
       </c>
-      <c r="B61" t="s">
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
         <v>230</v>
-      </c>
-      <c r="C61" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="62" spans="1:38">
-      <c r="A62" t="s">
-        <v>232</v>
       </c>
       <c r="B62" t="s">
         <v>112</v>
       </c>
       <c r="C62" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="64" spans="1:38">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B65" t="s">
         <v>174</v>
       </c>
       <c r="C65" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B66" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="C66" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B67" t="s">
         <v>174</v>
       </c>
       <c r="C67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B70" t="s">
         <v>174</v>
       </c>
       <c r="C70" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K70" t="s">
         <v>49</v>
@@ -7973,1233 +7961,1233 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B71" t="s">
         <v>174</v>
       </c>
       <c r="C71" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B72" t="s">
         <v>184</v>
       </c>
       <c r="C72" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B73" t="s">
         <v>138</v>
       </c>
       <c r="C73" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C74" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B75" t="s">
         <v>138</v>
       </c>
       <c r="C75" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B90" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C90" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B91" t="s">
         <v>51</v>
       </c>
       <c r="C91" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B92" t="s">
         <v>138</v>
       </c>
       <c r="C92" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B95" t="s">
         <v>51</v>
       </c>
       <c r="C95" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B96" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C96" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B97" t="s">
         <v>51</v>
       </c>
       <c r="C97" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B98" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C98" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B99" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C99" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B100" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C100" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="889" spans="1:1">
       <c r="A889" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="927" spans="1:1">
       <c r="A927" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="939" spans="1:1">
       <c r="A939" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="952" spans="1:1">
       <c r="A952" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="965" spans="1:1">
       <c r="A965" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="978" spans="1:1">
       <c r="A978" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="991" spans="1:1">
       <c r="A991" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="1002" spans="1:1">
       <c r="A1002" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
